--- a/biology/Botanique/Forêt_de_Montceaux/Forêt_de_Montceaux.xlsx
+++ b/biology/Botanique/Forêt_de_Montceaux/Forêt_de_Montceaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montceaux</t>
+          <t>Forêt_de_Montceaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt de Montceaux est un massif forestier de 685 hectares de forêt domaniale, situé en Seine-et-Marne à 7 km à l'est de Meaux.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montceaux</t>
+          <t>Forêt_de_Montceaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montceaux</t>
+          <t>Forêt_de_Montceaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,7 +554,9 @@
           <t>Géographie administrative</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La forêt de Montceaux s'étend sur quatre communes de Seine-et-Marne :
 Trilport ;
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montceaux</t>
+          <t>Forêt_de_Montceaux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montceaux</t>
+          <t>Forêt_de_Montceaux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,11 +618,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt faisait partie intégrante des terres qui ont été cédées par Louis le Pieux à l’Abbaye de Jouarre au sein de l'évéché de Meaux. 
 Henri IV viendra y chasser au moment où il offre le château de Montceaux à sa favorite Gabrielle d’Estrées. À partir de 1691, une capitainerie royale des chasses est créée à Montceaux. 
-Louis XIII y chasse le loup et Louis XVI la traverse lors de sa fuite à Varennes. Devenue Bien National à la Révolution française, la forêt devient domaniale et est aménagée à partir de 1837[2].
+Louis XIII y chasse le loup et Louis XVI la traverse lors de sa fuite à Varennes. Devenue Bien National à la Révolution française, la forêt devient domaniale et est aménagée à partir de 1837.
 </t>
         </is>
       </c>
@@ -615,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montceaux</t>
+          <t>Forêt_de_Montceaux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,11 +655,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Flore
-Le chêne domine parmi les hêtres, les frênes et divers feuillus. Les résineux constituent un peu moins de 10 % du peuplement.
-Faune
-La faune est pour l'essentiel constituée de renards, blaireaux, lapins, sangliers et chevreuils.
-La chasse</t>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chêne domine parmi les hêtres, les frênes et divers feuillus. Les résineux constituent un peu moins de 10 % du peuplement.
+</t>
         </is>
       </c>
     </row>
@@ -649,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montceaux</t>
+          <t>Forêt_de_Montceaux</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,12 +687,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gestion forestière</t>
+          <t>Faune et flore</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">La forêt domaniale de Monceaux est gérée par l'Office national des forêts.
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faune est pour l'essentiel constituée de renards, blaireaux, lapins, sangliers et chevreuils.
 </t>
         </is>
       </c>
@@ -680,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montceaux</t>
+          <t>Forêt_de_Montceaux</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -695,10 +724,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Gestion administrative</t>
+          <t>Gestion forestière</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt domaniale de Monceaux est gérée par l'Office national des forêts.
+</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -706,7 +742,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montceaux</t>
+          <t>Forêt_de_Montceaux</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -721,10 +757,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aménagement</t>
+          <t>Gestion administrative</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,7 +770,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Montceaux</t>
+          <t>Forêt_de_Montceaux</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -747,10 +785,40 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Aménagement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Forêt_de_Montceaux</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_de_Montceaux</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Lieux remarquables</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux circuits forestiers font découvrir des chênes remarquables comme le « gros chêne » âgé d’environ 540 ans ou « le chêne du roi » âgé d’environ 350 ans.
 </t>
